--- a/biology/Zoologie/Bruant_de_Pallas/Bruant_de_Pallas.xlsx
+++ b/biology/Zoologie/Bruant_de_Pallas/Bruant_de_Pallas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emberiza pallasi
 Le Bruant de Pallas  est une espèce de passereaux appartenant à la famille des Emberizidae.
@@ -512,11 +524,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Emberiza pallasi a été décrite par l’ornithologue allemand Jean Louis Cabanis en 1851. Il l'a dédiée au naturaliste Peter Simon Pallas[1].
-nom vernaculaire
-Bruant de Pallas</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Emberiza pallasi a été décrite par l’ornithologue allemand Jean Louis Cabanis en 1851. Il l'a dédiée au naturaliste Peter Simon Pallas.
+</t>
         </is>
       </c>
     </row>
@@ -541,10 +554,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bruant de Pallas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bruant_de_Pallas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_de_Pallas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des sous-espèce
 Emberiza pallasi pallasi
@@ -554,32 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bruant_de_Pallas</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bruant_de_Pallas</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -601,10 +626,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruant_de_Pallas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_de_Pallas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bruant de Pallas vit en Asie centrale et en Asie septentrionale, jusqu'en Mongolie. C'est un oiseau migrateur qui hiverne en Asie du Sud-Est, jusqu'en Corée et en Mandchourie. Il arrive rarement qu'il migre en Europe occidentale.
 </t>
